--- a/Data/EC/NIT-9006452482.xlsx
+++ b/Data/EC/NIT-9006452482.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{61887E47-2789-41B1-8D40-1D5F6DE94CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F1923A2-7773-4F6B-9ECE-FDB38C4526AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{71A9A1C5-300A-4095-8BDD-49691DC86E4B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B0B3A251-5909-48ED-8E57-875D82AA5ABB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,124 +71,124 @@
     <t>PEDRO TOMAS CARIAGA PAEZ</t>
   </si>
   <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
     <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1607</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -287,7 +287,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -300,9 +302,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -502,23 +502,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -546,10 +546,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -602,7 +602,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FD162BC-34C7-C034-2AB8-2DBFD17F52C3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C82F4F6-DAAB-1903-C981-FA1679EEBB78}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -953,7 +953,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AE81EC9-E63D-4DD1-B165-372A6B106D77}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15AF54E9-9ABD-45C3-ACDA-8703B7A05783}">
   <dimension ref="B2:J61"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1131,7 +1131,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G16" s="18">
         <v>828116</v>
@@ -1154,7 +1154,7 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G17" s="18">
         <v>828116</v>
@@ -1177,7 +1177,7 @@
         <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G18" s="18">
         <v>828116</v>
@@ -1200,7 +1200,7 @@
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G19" s="18">
         <v>828116</v>
@@ -1223,7 +1223,7 @@
         <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G20" s="18">
         <v>828116</v>
@@ -1246,7 +1246,7 @@
         <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G21" s="18">
         <v>828116</v>
@@ -1269,7 +1269,7 @@
         <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G22" s="18">
         <v>828116</v>
@@ -1292,7 +1292,7 @@
         <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G23" s="18">
         <v>828116</v>
@@ -1315,7 +1315,7 @@
         <v>19</v>
       </c>
       <c r="F24" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G24" s="18">
         <v>828116</v>
@@ -1338,7 +1338,7 @@
         <v>20</v>
       </c>
       <c r="F25" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G25" s="18">
         <v>828116</v>
@@ -1361,7 +1361,7 @@
         <v>21</v>
       </c>
       <c r="F26" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G26" s="18">
         <v>828116</v>
@@ -1384,7 +1384,7 @@
         <v>22</v>
       </c>
       <c r="F27" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G27" s="18">
         <v>828116</v>
@@ -1407,7 +1407,7 @@
         <v>23</v>
       </c>
       <c r="F28" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G28" s="18">
         <v>828116</v>
@@ -1430,7 +1430,7 @@
         <v>24</v>
       </c>
       <c r="F29" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G29" s="18">
         <v>828116</v>
@@ -1729,7 +1729,7 @@
         <v>37</v>
       </c>
       <c r="F42" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G42" s="18">
         <v>828116</v>
@@ -1752,7 +1752,7 @@
         <v>38</v>
       </c>
       <c r="F43" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G43" s="18">
         <v>828116</v>
@@ -1775,7 +1775,7 @@
         <v>39</v>
       </c>
       <c r="F44" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G44" s="18">
         <v>828116</v>
@@ -1798,7 +1798,7 @@
         <v>40</v>
       </c>
       <c r="F45" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G45" s="18">
         <v>828116</v>
@@ -1821,7 +1821,7 @@
         <v>41</v>
       </c>
       <c r="F46" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G46" s="18">
         <v>828116</v>
@@ -1844,7 +1844,7 @@
         <v>42</v>
       </c>
       <c r="F47" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G47" s="18">
         <v>828116</v>
@@ -1867,7 +1867,7 @@
         <v>43</v>
       </c>
       <c r="F48" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G48" s="18">
         <v>828116</v>
@@ -1890,7 +1890,7 @@
         <v>44</v>
       </c>
       <c r="F49" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G49" s="18">
         <v>828116</v>
@@ -1913,7 +1913,7 @@
         <v>45</v>
       </c>
       <c r="F50" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G50" s="18">
         <v>828116</v>
@@ -1936,7 +1936,7 @@
         <v>46</v>
       </c>
       <c r="F51" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G51" s="18">
         <v>828116</v>
@@ -1959,7 +1959,7 @@
         <v>47</v>
       </c>
       <c r="F52" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G52" s="18">
         <v>828116</v>
@@ -1982,7 +1982,7 @@
         <v>48</v>
       </c>
       <c r="F53" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G53" s="18">
         <v>828116</v>
@@ -2005,7 +2005,7 @@
         <v>49</v>
       </c>
       <c r="F54" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G54" s="18">
         <v>828116</v>
@@ -2028,7 +2028,7 @@
         <v>50</v>
       </c>
       <c r="F55" s="24">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G55" s="24">
         <v>828116</v>
